--- a/OnBoard/output/trust/bio/Bio_Trust_61.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_61.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q389"/>
+  <dimension ref="A1:Q390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17001,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="H334">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -17019,6 +17019,11 @@
       <c r="L334">
         <v>0</v>
       </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -17056,7 +17061,7 @@
         <v>10</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J335" t="inlineStr">
         <is>
@@ -17105,10 +17110,10 @@
         <v>1</v>
       </c>
       <c r="H336">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -17147,7 +17152,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F337">
@@ -17157,14 +17162,19 @@
         <v>1</v>
       </c>
       <c r="H337">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="I337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L337">
@@ -17204,7 +17214,7 @@
         <v>1</v>
       </c>
       <c r="H338">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I338">
         <v>-1</v>
@@ -17251,7 +17261,7 @@
         <v>1</v>
       </c>
       <c r="H339">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I339">
         <v>-1</v>
@@ -17288,7 +17298,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F340">
@@ -17298,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="H340">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="I340">
         <v>-1</v>
@@ -17335,7 +17345,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F341">
@@ -17345,19 +17355,14 @@
         <v>1</v>
       </c>
       <c r="H341">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="I341">
         <v>-1</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L341">
@@ -17397,7 +17402,7 @@
         <v>1</v>
       </c>
       <c r="H342">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I342">
         <v>-1</v>
@@ -17449,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="H343">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I343">
         <v>-1</v>
@@ -17553,7 +17558,7 @@
         <v>1</v>
       </c>
       <c r="H345">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I345">
         <v>-1</v>
@@ -17657,7 +17662,7 @@
         <v>1</v>
       </c>
       <c r="H347">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I347">
         <v>-1</v>
@@ -17709,7 +17714,7 @@
         <v>1</v>
       </c>
       <c r="H348">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I348">
         <v>-1</v>
@@ -17761,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="H349">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I349">
         <v>-1</v>
@@ -17813,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="H350">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I350">
         <v>-1</v>
@@ -17865,7 +17870,7 @@
         <v>1</v>
       </c>
       <c r="H351">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I351">
         <v>-1</v>
@@ -17917,7 +17922,7 @@
         <v>1</v>
       </c>
       <c r="H352">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I352">
         <v>-1</v>
@@ -17969,7 +17974,7 @@
         <v>1</v>
       </c>
       <c r="H353">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I353">
         <v>-1</v>
@@ -18021,7 +18026,7 @@
         <v>1</v>
       </c>
       <c r="H354">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I354">
         <v>-1</v>
@@ -18073,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="H355">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I355">
         <v>-1</v>
@@ -18125,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="H356">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I356">
         <v>-1</v>
@@ -18177,7 +18182,7 @@
         <v>1</v>
       </c>
       <c r="H357">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I357">
         <v>-1</v>
@@ -18229,7 +18234,7 @@
         <v>1</v>
       </c>
       <c r="H358">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I358">
         <v>-1</v>
@@ -18281,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="H359">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I359">
         <v>-1</v>
@@ -18333,7 +18338,7 @@
         <v>1</v>
       </c>
       <c r="H360">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I360">
         <v>-1</v>
@@ -18385,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="H361">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I361">
         <v>-1</v>
@@ -18437,7 +18442,7 @@
         <v>1</v>
       </c>
       <c r="H362">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I362">
         <v>-1</v>
@@ -18449,7 +18454,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L362">
@@ -18489,7 +18494,7 @@
         <v>1</v>
       </c>
       <c r="H363">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I363">
         <v>-1</v>
@@ -18541,7 +18546,7 @@
         <v>1</v>
       </c>
       <c r="H364">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I364">
         <v>-1</v>
@@ -18645,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="H366">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I366">
         <v>-1</v>
@@ -18697,7 +18702,7 @@
         <v>1</v>
       </c>
       <c r="H367">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I367">
         <v>-1</v>
@@ -18749,7 +18754,7 @@
         <v>1</v>
       </c>
       <c r="H368">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I368">
         <v>-1</v>
@@ -18801,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="H369">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I369">
         <v>-1</v>
@@ -18853,7 +18858,7 @@
         <v>1</v>
       </c>
       <c r="H370">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I370">
         <v>-1</v>
@@ -18905,7 +18910,7 @@
         <v>1</v>
       </c>
       <c r="H371">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I371">
         <v>-1</v>
@@ -18957,14 +18962,19 @@
         <v>1</v>
       </c>
       <c r="H372">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I372">
         <v>-1</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L372">
@@ -19004,7 +19014,7 @@
         <v>1</v>
       </c>
       <c r="H373">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I373">
         <v>-1</v>
@@ -19051,7 +19061,7 @@
         <v>1</v>
       </c>
       <c r="H374">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I374">
         <v>-1</v>
@@ -19098,7 +19108,7 @@
         <v>1</v>
       </c>
       <c r="H375">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I375">
         <v>-1</v>
@@ -19145,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="H376">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I376">
         <v>-1</v>
@@ -19286,7 +19296,7 @@
         <v>1</v>
       </c>
       <c r="H379">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I379">
         <v>-1</v>
@@ -19333,7 +19343,7 @@
         <v>1</v>
       </c>
       <c r="H380">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I380">
         <v>-1</v>
@@ -19380,7 +19390,7 @@
         <v>1</v>
       </c>
       <c r="H381">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I381">
         <v>-1</v>
@@ -19427,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="H382">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I382">
         <v>-1</v>
@@ -19474,7 +19484,7 @@
         <v>1</v>
       </c>
       <c r="H383">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I383">
         <v>-1</v>
@@ -19521,7 +19531,7 @@
         <v>1</v>
       </c>
       <c r="H384">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I384">
         <v>-1</v>
@@ -19568,7 +19578,7 @@
         <v>1</v>
       </c>
       <c r="H385">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I385">
         <v>-1</v>
@@ -19615,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="H386">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I386">
         <v>-1</v>
@@ -19662,7 +19672,7 @@
         <v>1</v>
       </c>
       <c r="H387">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I387">
         <v>-1</v>
@@ -19709,7 +19719,7 @@
         <v>1</v>
       </c>
       <c r="H388">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I388">
         <v>-1</v>
@@ -19756,22 +19766,69 @@
         <v>1</v>
       </c>
       <c r="H389">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I389">
         <v>-1</v>
       </c>
       <c r="J389" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>1</v>
+      </c>
+      <c r="H390">
+        <v>28</v>
+      </c>
+      <c r="I390">
+        <v>-1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="K389" t="inlineStr">
+      <c r="K390" t="inlineStr">
         <is>
           <t>MEDPF-1</t>
         </is>
       </c>
-      <c r="L389">
+      <c r="L390">
         <v>0</v>
       </c>
     </row>
